--- a/liuyang/liuenhao/gaokao/211院校——匹配.xlsx
+++ b/liuyang/liuenhao/gaokao/211院校——匹配.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2268"/>
+  <dimension ref="A1:F2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57811,54 +57811,54 @@
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>9698</v>
+        <v>9727</v>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>天津医科大学</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
+          <t>海南大学(海口市)[公办]</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>天津医科大学临床医学院</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>口腔医学</t>
+          <t>会展经济与管理(中外合作办学)</t>
         </is>
       </c>
       <c r="F2050" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>9727</v>
+        <v>9818</v>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>海南大学(海口市)[公办]</t>
+          <t>西藏大学(拉萨市)[公办]</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>会展经济与管理(中外合作办学)</t>
+          <t>化学</t>
         </is>
       </c>
       <c r="F2051" t="n">
@@ -57867,7 +57867,7 @@
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>9818</v>
+        <v>9958</v>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
@@ -57886,16 +57886,16 @@
       </c>
       <c r="E2052" t="inlineStr">
         <is>
-          <t>化学</t>
+          <t>英语</t>
         </is>
       </c>
       <c r="F2052" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>9958</v>
+        <v>9959</v>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
@@ -57914,7 +57914,7 @@
       </c>
       <c r="E2053" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>建筑学</t>
         </is>
       </c>
       <c r="F2053" t="n">
@@ -57923,7 +57923,7 @@
     </row>
     <row r="2054">
       <c r="A2054" t="n">
-        <v>9959</v>
+        <v>10071</v>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
@@ -57942,16 +57942,16 @@
       </c>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>建筑学</t>
+          <t>预防医学</t>
         </is>
       </c>
       <c r="F2054" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="n">
-        <v>10071</v>
+        <v>10189</v>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
@@ -57970,16 +57970,16 @@
       </c>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>预防医学</t>
+          <t>工商管理</t>
         </is>
       </c>
       <c r="F2055" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="n">
-        <v>10189</v>
+        <v>10190</v>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
       </c>
       <c r="E2056" t="inlineStr">
         <is>
-          <t>工商管理</t>
+          <t>行政管理</t>
         </is>
       </c>
       <c r="F2056" t="n">
@@ -58007,82 +58007,82 @@
     </row>
     <row r="2057">
       <c r="A2057" t="n">
-        <v>10190</v>
+        <v>10229</v>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>西藏大学(拉萨市)[公办]</t>
+          <t>东北农业大学(哈尔滨市)[公办]</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>行政管理</t>
+          <t>生物科学(中美121双学位项目)</t>
         </is>
       </c>
       <c r="F2057" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2058">
       <c r="A2058" t="n">
-        <v>10229</v>
+        <v>10360</v>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>东北农业大学</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>东北农业大学(哈尔滨市)[公办]</t>
+          <t>海南大学(海口市)[公办]</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr">
         <is>
-          <t>东北农业大学</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>生物科学(中美121双学位项目)</t>
+          <t>酒店管理(中外合作办学)</t>
         </is>
       </c>
       <c r="F2058" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="n">
-        <v>10360</v>
+        <v>10432</v>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>四川农业大学</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>海南大学(海口市)[公办]</t>
+          <t>四川农业大学[公办]</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>四川农业大学</t>
         </is>
       </c>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>酒店管理(中外合作办学)</t>
+          <t>食品科学与工程(中外高水平大学学生交流计划)</t>
         </is>
       </c>
       <c r="F2059" t="n">
@@ -58091,26 +58091,26 @@
     </row>
     <row r="2060">
       <c r="A2060" t="n">
-        <v>10432</v>
+        <v>10440</v>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>四川农业大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>四川农业大学[公办]</t>
+          <t>西藏大学(拉萨市)[公办]</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>四川农业大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>食品科学与工程(中外高水平大学学生交流计划)</t>
+          <t>土木工程</t>
         </is>
       </c>
       <c r="F2060" t="n">
@@ -58119,26 +58119,26 @@
     </row>
     <row r="2061">
       <c r="A2061" t="n">
-        <v>10440</v>
+        <v>10453</v>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>云南大学</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>西藏大学(拉萨市)[公办]</t>
+          <t>云南大学(昆明市)[公办]</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>云南大学</t>
         </is>
       </c>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>土木工程</t>
+          <t>土木工程(中外合作办学)</t>
         </is>
       </c>
       <c r="F2061" t="n">
@@ -58147,54 +58147,54 @@
     </row>
     <row r="2062">
       <c r="A2062" t="n">
-        <v>10453</v>
+        <v>10622</v>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>云南大学</t>
+          <t>贵州大学</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>云南大学(昆明市)[公办]</t>
+          <t>贵州大学(贵阳市)[公办]</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr">
         <is>
-          <t>云南大学</t>
+          <t>贵州大学</t>
         </is>
       </c>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>土木工程(中外合作办学)</t>
+          <t>旅游管理(中外合作办学)</t>
         </is>
       </c>
       <c r="F2062" t="n">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2063">
       <c r="A2063" t="n">
-        <v>10622</v>
+        <v>10627</v>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>贵州大学</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>贵州大学(贵阳市)[公办]</t>
+          <t>海南大学(海口市)[公办]</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>贵州大学</t>
+          <t>海南大学</t>
         </is>
       </c>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>旅游管理(中外合作办学)</t>
+          <t>电子商务(中外合作办学)</t>
         </is>
       </c>
       <c r="F2063" t="n">
@@ -58203,26 +58203,26 @@
     </row>
     <row r="2064">
       <c r="A2064" t="n">
-        <v>10627</v>
+        <v>10712</v>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>海南大学(海口市)[公办]</t>
+          <t>西藏大学(拉萨市)[公办]</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr">
         <is>
-          <t>海南大学</t>
+          <t>西藏大学</t>
         </is>
       </c>
       <c r="E2064" t="inlineStr">
         <is>
-          <t>电子商务(中外合作办学)</t>
+          <t>护理学</t>
         </is>
       </c>
       <c r="F2064" t="n">
@@ -58231,5714 +58231,170 @@
     </row>
     <row r="2065">
       <c r="A2065" t="n">
-        <v>10712</v>
+        <v>10826</v>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>宁夏大学</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>西藏大学(拉萨市)[公办]</t>
+          <t>宁夏大学(银川市)[公办]</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr">
         <is>
-          <t>西藏大学</t>
+          <t>宁夏大学</t>
         </is>
       </c>
       <c r="E2065" t="inlineStr">
         <is>
-          <t>护理学</t>
+          <t>葡萄与葡萄酒工程(中外合作办学)</t>
         </is>
       </c>
       <c r="F2065" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>10826</v>
+        <v>11034</v>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>宁夏大学</t>
+          <t>东北林业大学</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>宁夏大学(银川市)[公办]</t>
+          <t>东北林业大学(哈尔滨市)[公办]</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr">
         <is>
-          <t>宁夏大学</t>
+          <t>东北林业大学</t>
         </is>
       </c>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>葡萄与葡萄酒工程(中外合作办学)</t>
+          <t>工程管理(中外合作办学)</t>
         </is>
       </c>
       <c r="F2066" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2067">
       <c r="A2067" t="n">
-        <v>11034</v>
+        <v>11310</v>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>东北林业大学</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>东北林业大学(哈尔滨市)[公办]</t>
+          <t>东北农业大学(哈尔滨市)[公办]</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr">
         <is>
-          <t>东北林业大学</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="E2067" t="inlineStr">
         <is>
-          <t>工程管理(中外合作办学)</t>
+          <t>食品科学与工程(中美121双学位项目)</t>
         </is>
       </c>
       <c r="F2067" t="n">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2068">
       <c r="A2068" t="n">
-        <v>11144</v>
+        <v>11746</v>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>苏州大学</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>苏州大学应用技术学院[独立学院]</t>
+          <t>东北农业大学(哈尔滨市)[公办]</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr">
         <is>
-          <t>苏州大学应用技术学院</t>
+          <t>东北农业大学</t>
         </is>
       </c>
       <c r="E2068" t="inlineStr">
         <is>
-          <t>会计学</t>
+          <t>动物科学(中美121双学位项目)</t>
         </is>
       </c>
       <c r="F2068" t="n">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2069">
       <c r="A2069" t="n">
-        <v>11292</v>
+        <v>13744</v>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>天津医科大学</t>
+          <t>北京体育大学</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
+          <t>北京体育大学[公办]</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr">
         <is>
-          <t>天津医科大学临床医学院</t>
+          <t>北京体育大学</t>
         </is>
       </c>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>临床医学</t>
+          <t>休闲体育(中外合作办学)</t>
         </is>
       </c>
       <c r="F2069" t="n">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2070">
       <c r="A2070" t="n">
-        <v>11310</v>
+        <v>15493</v>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>东北农业大学</t>
+          <t>北京体育大学</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>东北农业大学(哈尔滨市)[公办]</t>
+          <t>北京体育大学[公办]</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr">
         <is>
-          <t>东北农业大学</t>
+          <t>北京体育大学</t>
         </is>
       </c>
       <c r="E2070" t="inlineStr">
         <is>
-          <t>食品科学与工程(中美121双学位项目)</t>
+          <t>旅游管理(中外合作办学)</t>
         </is>
       </c>
       <c r="F2070" t="n">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" t="n">
-        <v>11432</v>
-      </c>
-      <c r="B2071" t="inlineStr">
-        <is>
-          <t>上海财经大学</t>
-        </is>
-      </c>
-      <c r="C2071" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2071" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院</t>
-        </is>
-      </c>
-      <c r="E2071" t="inlineStr">
-        <is>
-          <t>会计学(注册会计)</t>
-        </is>
-      </c>
-      <c r="F2071" t="n">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" t="n">
-        <v>11720</v>
-      </c>
-      <c r="B2072" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2072" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2072" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2072" t="inlineStr">
-        <is>
-          <t>法学</t>
-        </is>
-      </c>
-      <c r="F2072" t="n">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" t="n">
-        <v>11746</v>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>东北农业大学</t>
-        </is>
-      </c>
-      <c r="C2073" t="inlineStr">
-        <is>
-          <t>东北农业大学(哈尔滨市)[公办]</t>
-        </is>
-      </c>
-      <c r="D2073" t="inlineStr">
-        <is>
-          <t>东北农业大学</t>
-        </is>
-      </c>
-      <c r="E2073" t="inlineStr">
-        <is>
-          <t>动物科学(中美121双学位项目)</t>
-        </is>
-      </c>
-      <c r="F2073" t="n">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" t="n">
-        <v>12447</v>
-      </c>
-      <c r="B2074" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2074" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2074" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2074" t="inlineStr">
-        <is>
-          <t>会计学</t>
-        </is>
-      </c>
-      <c r="F2074" t="n">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="n">
-        <v>12450</v>
-      </c>
-      <c r="B2075" t="inlineStr">
-        <is>
-          <t>上海财经大学</t>
-        </is>
-      </c>
-      <c r="C2075" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2075" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院</t>
-        </is>
-      </c>
-      <c r="E2075" t="inlineStr">
-        <is>
-          <t>会计学(国际会计ACCA)</t>
-        </is>
-      </c>
-      <c r="F2075" t="n">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="n">
-        <v>13143</v>
-      </c>
-      <c r="B2076" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2076" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2076" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2076" t="inlineStr">
-        <is>
-          <t>医学检验技术</t>
-        </is>
-      </c>
-      <c r="F2076" t="n">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="n">
-        <v>13144</v>
-      </c>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2077" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2077" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>康复治疗学</t>
-        </is>
-      </c>
-      <c r="F2077" t="n">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="n">
-        <v>13455</v>
-      </c>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2078" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2078" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2078" t="inlineStr">
-        <is>
-          <t>新闻学(双语班)</t>
-        </is>
-      </c>
-      <c r="F2078" t="n">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="n">
-        <v>13456</v>
-      </c>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2079" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2079" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2079" t="inlineStr">
-        <is>
-          <t>眼视光学</t>
-        </is>
-      </c>
-      <c r="F2079" t="n">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" t="n">
-        <v>13598</v>
-      </c>
-      <c r="B2080" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2080" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2080" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2080" t="inlineStr">
-        <is>
-          <t>法学</t>
-        </is>
-      </c>
-      <c r="F2080" t="n">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" t="n">
-        <v>13599</v>
-      </c>
-      <c r="B2081" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2081" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2081" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2081" t="inlineStr">
-        <is>
-          <t>药学</t>
-        </is>
-      </c>
-      <c r="F2081" t="n">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" t="n">
-        <v>13600</v>
-      </c>
-      <c r="B2082" t="inlineStr">
-        <is>
-          <t>西南交通大学</t>
-        </is>
-      </c>
-      <c r="C2082" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院(成都市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2082" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院</t>
-        </is>
-      </c>
-      <c r="E2082" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化</t>
-        </is>
-      </c>
-      <c r="F2082" t="n">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="n">
-        <v>13732</v>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2083" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2083" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>法学</t>
-        </is>
-      </c>
-      <c r="F2083" t="n">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="n">
-        <v>13735</v>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2084" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2084" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>医学影像技术</t>
-        </is>
-      </c>
-      <c r="F2084" t="n">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="n">
-        <v>13744</v>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>北京体育大学</t>
-        </is>
-      </c>
-      <c r="C2085" t="inlineStr">
-        <is>
-          <t>北京体育大学[公办]</t>
-        </is>
-      </c>
-      <c r="D2085" t="inlineStr">
-        <is>
-          <t>北京体育大学</t>
-        </is>
-      </c>
-      <c r="E2085" t="inlineStr">
-        <is>
-          <t>休闲体育(中外合作办学)</t>
-        </is>
-      </c>
-      <c r="F2085" t="n">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" t="n">
-        <v>13846</v>
-      </c>
-      <c r="B2086" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2086" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2086" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2086" t="inlineStr">
-        <is>
-          <t>数字媒体技术</t>
-        </is>
-      </c>
-      <c r="F2086" t="n">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" t="n">
-        <v>13992</v>
-      </c>
-      <c r="B2087" t="inlineStr">
-        <is>
-          <t>西南财经大学</t>
-        </is>
-      </c>
-      <c r="C2087" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2087" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院</t>
-        </is>
-      </c>
-      <c r="E2087" t="inlineStr">
-        <is>
-          <t>会计学</t>
-        </is>
-      </c>
-      <c r="F2087" t="n">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" t="n">
-        <v>14106</v>
-      </c>
-      <c r="B2088" t="inlineStr">
-        <is>
-          <t>西南交通大学</t>
-        </is>
-      </c>
-      <c r="C2088" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院(成都市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2088" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院</t>
-        </is>
-      </c>
-      <c r="E2088" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2088" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" t="n">
-        <v>14228</v>
-      </c>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2089" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2089" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2089" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2089" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" t="n">
-        <v>14236</v>
-      </c>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>西南财经大学</t>
-        </is>
-      </c>
-      <c r="C2090" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2090" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院</t>
-        </is>
-      </c>
-      <c r="E2090" t="inlineStr">
-        <is>
-          <t>护理学</t>
-        </is>
-      </c>
-      <c r="F2090" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" t="n">
-        <v>14237</v>
-      </c>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>西南财经大学</t>
-        </is>
-      </c>
-      <c r="C2091" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2091" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院</t>
-        </is>
-      </c>
-      <c r="E2091" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2091" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" t="n">
-        <v>14331</v>
-      </c>
-      <c r="B2092" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2092" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2092" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2092" t="inlineStr">
-        <is>
-          <t>知识产权</t>
-        </is>
-      </c>
-      <c r="F2092" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" t="n">
-        <v>14332</v>
-      </c>
-      <c r="B2093" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2093" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2093" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2093" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2093" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" t="n">
-        <v>14338</v>
-      </c>
-      <c r="B2094" t="inlineStr">
-        <is>
-          <t>上海财经大学</t>
-        </is>
-      </c>
-      <c r="C2094" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2094" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院</t>
-        </is>
-      </c>
-      <c r="E2094" t="inlineStr">
-        <is>
-          <t>应用统计学(金融统计)</t>
-        </is>
-      </c>
-      <c r="F2094" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="n">
-        <v>14341</v>
-      </c>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>苏州大学</t>
-        </is>
-      </c>
-      <c r="C2095" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2095" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院</t>
-        </is>
-      </c>
-      <c r="E2095" t="inlineStr">
-        <is>
-          <t>国际经济与贸易</t>
-        </is>
-      </c>
-      <c r="F2095" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="n">
-        <v>14342</v>
-      </c>
-      <c r="B2096" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2096" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2096" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2096" t="inlineStr">
-        <is>
-          <t>护理学</t>
-        </is>
-      </c>
-      <c r="F2096" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="n">
-        <v>14563</v>
-      </c>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2097" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2097" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2097" t="inlineStr">
-        <is>
-          <t>软件工程</t>
-        </is>
-      </c>
-      <c r="F2097" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" t="n">
-        <v>14564</v>
-      </c>
-      <c r="B2098" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2098" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2098" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2098" t="inlineStr">
-        <is>
-          <t>护理学</t>
-        </is>
-      </c>
-      <c r="F2098" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" t="n">
-        <v>14570</v>
-      </c>
-      <c r="B2099" t="inlineStr">
-        <is>
-          <t>苏州大学</t>
-        </is>
-      </c>
-      <c r="C2099" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2099" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院</t>
-        </is>
-      </c>
-      <c r="E2099" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="F2099" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" t="n">
-        <v>14572</v>
-      </c>
-      <c r="B2100" t="inlineStr">
-        <is>
-          <t>西南财经大学</t>
-        </is>
-      </c>
-      <c r="C2100" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2100" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院</t>
-        </is>
-      </c>
-      <c r="E2100" t="inlineStr">
-        <is>
-          <t>金融学(智能金融联合双学位创新班)</t>
-        </is>
-      </c>
-      <c r="F2100" t="n">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" t="n">
-        <v>14692</v>
-      </c>
-      <c r="B2101" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2101" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2101" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2101" t="inlineStr">
-        <is>
-          <t>电子信息工程</t>
-        </is>
-      </c>
-      <c r="F2101" t="n">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2102">
-      <c r="A2102" t="n">
-        <v>14696</v>
-      </c>
-      <c r="B2102" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2102" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2102" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2102" t="inlineStr">
-        <is>
-          <t>健康服务与管理</t>
-        </is>
-      </c>
-      <c r="F2102" t="n">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2103">
-      <c r="A2103" t="n">
-        <v>14699</v>
-      </c>
-      <c r="B2103" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2103" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2103" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2103" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2103" t="n">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2104">
-      <c r="A2104" t="n">
-        <v>14790</v>
-      </c>
-      <c r="B2104" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2104" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2104" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2104" t="inlineStr">
-        <is>
-          <t>法学(双语班)</t>
-        </is>
-      </c>
-      <c r="F2104" t="n">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2105">
-      <c r="A2105" t="n">
-        <v>14792</v>
-      </c>
-      <c r="B2105" t="inlineStr">
-        <is>
-          <t>苏州大学</t>
-        </is>
-      </c>
-      <c r="C2105" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2105" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院</t>
-        </is>
-      </c>
-      <c r="E2105" t="inlineStr">
-        <is>
-          <t>广告学</t>
-        </is>
-      </c>
-      <c r="F2105" t="n">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2106">
-      <c r="A2106" t="n">
-        <v>14876</v>
-      </c>
-      <c r="B2106" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2106" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2106" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2106" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="F2106" t="n">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2107">
-      <c r="A2107" t="n">
-        <v>14882</v>
-      </c>
-      <c r="B2107" t="inlineStr">
-        <is>
-          <t>西南财经大学</t>
-        </is>
-      </c>
-      <c r="C2107" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2107" t="inlineStr">
-        <is>
-          <t>西南财经大学天府学院</t>
-        </is>
-      </c>
-      <c r="E2107" t="inlineStr">
-        <is>
-          <t>金融学</t>
-        </is>
-      </c>
-      <c r="F2107" t="n">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2108">
-      <c r="A2108" t="n">
-        <v>14974</v>
-      </c>
-      <c r="B2108" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2108" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2108" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2108" t="inlineStr">
-        <is>
-          <t>通信工程</t>
-        </is>
-      </c>
-      <c r="F2108" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2109">
-      <c r="A2109" t="n">
-        <v>15080</v>
-      </c>
-      <c r="B2109" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2109" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2109" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2109" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2109" t="n">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2110">
-      <c r="A2110" t="n">
-        <v>15083</v>
-      </c>
-      <c r="B2110" t="inlineStr">
-        <is>
-          <t>苏州大学</t>
-        </is>
-      </c>
-      <c r="C2110" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2110" t="inlineStr">
-        <is>
-          <t>苏州大学应用技术学院</t>
-        </is>
-      </c>
-      <c r="E2110" t="inlineStr">
-        <is>
-          <t>市场营销</t>
-        </is>
-      </c>
-      <c r="F2110" t="n">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2111">
-      <c r="A2111" t="n">
-        <v>15087</v>
-      </c>
-      <c r="B2111" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2111" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2111" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2111" t="inlineStr">
-        <is>
-          <t>会计学</t>
-        </is>
-      </c>
-      <c r="F2111" t="n">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2112">
-      <c r="A2112" t="n">
-        <v>15175</v>
-      </c>
-      <c r="B2112" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2112" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2112" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2112" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="F2112" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2113">
-      <c r="A2113" t="n">
-        <v>15176</v>
-      </c>
-      <c r="B2113" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2113" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2113" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2113" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="F2113" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2114">
-      <c r="A2114" t="n">
-        <v>15185</v>
-      </c>
-      <c r="B2114" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2114" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2114" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2114" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2114" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2115">
-      <c r="A2115" t="n">
-        <v>15264</v>
-      </c>
-      <c r="B2115" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2115" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2115" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2115" t="inlineStr">
-        <is>
-          <t>国际经济与贸易</t>
-        </is>
-      </c>
-      <c r="F2115" t="n">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2116">
-      <c r="A2116" t="n">
-        <v>15271</v>
-      </c>
-      <c r="B2116" t="inlineStr">
-        <is>
-          <t>上海财经大学</t>
-        </is>
-      </c>
-      <c r="C2116" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2116" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院</t>
-        </is>
-      </c>
-      <c r="E2116" t="inlineStr">
-        <is>
-          <t>软件工程</t>
-        </is>
-      </c>
-      <c r="F2116" t="n">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2117">
-      <c r="A2117" t="n">
-        <v>15375</v>
-      </c>
-      <c r="B2117" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2117" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2117" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2117" t="inlineStr">
-        <is>
-          <t>财务管理(国际注册会计师)</t>
-        </is>
-      </c>
-      <c r="F2117" t="n">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2118">
-      <c r="A2118" t="n">
-        <v>15459</v>
-      </c>
-      <c r="B2118" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2118" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2118" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2118" t="inlineStr">
-        <is>
-          <t>无人驾驶航空器系统工程</t>
-        </is>
-      </c>
-      <c r="F2118" t="n">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2119">
-      <c r="A2119" t="n">
-        <v>15493</v>
-      </c>
-      <c r="B2119" t="inlineStr">
-        <is>
-          <t>北京体育大学</t>
-        </is>
-      </c>
-      <c r="C2119" t="inlineStr">
-        <is>
-          <t>北京体育大学[公办]</t>
-        </is>
-      </c>
-      <c r="D2119" t="inlineStr">
-        <is>
-          <t>北京体育大学</t>
-        </is>
-      </c>
-      <c r="E2119" t="inlineStr">
-        <is>
-          <t>旅游管理(中外合作办学)</t>
-        </is>
-      </c>
-      <c r="F2119" t="n">
         <v>506</v>
-      </c>
-    </row>
-    <row r="2120">
-      <c r="A2120" t="n">
-        <v>15567</v>
-      </c>
-      <c r="B2120" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2120" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2120" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2120" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="F2120" t="n">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2121">
-      <c r="A2121" t="n">
-        <v>15580</v>
-      </c>
-      <c r="B2121" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2121" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2121" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2121" t="inlineStr">
-        <is>
-          <t>国际经济与贸易</t>
-        </is>
-      </c>
-      <c r="F2121" t="n">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2122">
-      <c r="A2122" t="n">
-        <v>15656</v>
-      </c>
-      <c r="B2122" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2122" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2122" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2122" t="inlineStr">
-        <is>
-          <t>智能制造工程</t>
-        </is>
-      </c>
-      <c r="F2122" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2123">
-      <c r="A2123" t="n">
-        <v>15657</v>
-      </c>
-      <c r="B2123" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2123" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2123" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2123" t="inlineStr">
-        <is>
-          <t>软件工程</t>
-        </is>
-      </c>
-      <c r="F2123" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2124">
-      <c r="A2124" t="n">
-        <v>15669</v>
-      </c>
-      <c r="B2124" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2124" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2124" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2124" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化</t>
-        </is>
-      </c>
-      <c r="F2124" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2125">
-      <c r="A2125" t="n">
-        <v>15764</v>
-      </c>
-      <c r="B2125" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2125" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2125" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2125" t="inlineStr">
-        <is>
-          <t>机械工程</t>
-        </is>
-      </c>
-      <c r="F2125" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2126">
-      <c r="A2126" t="n">
-        <v>15765</v>
-      </c>
-      <c r="B2126" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2126" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2126" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2126" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2126" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2127">
-      <c r="A2127" t="n">
-        <v>15768</v>
-      </c>
-      <c r="B2127" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2127" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2127" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2127" t="inlineStr">
-        <is>
-          <t>数字媒体技术</t>
-        </is>
-      </c>
-      <c r="F2127" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2128">
-      <c r="A2128" t="n">
-        <v>15783</v>
-      </c>
-      <c r="B2128" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2128" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2128" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2128" t="inlineStr">
-        <is>
-          <t>公共事业管理</t>
-        </is>
-      </c>
-      <c r="F2128" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2129">
-      <c r="A2129" t="n">
-        <v>15859</v>
-      </c>
-      <c r="B2129" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2129" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2129" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2129" t="inlineStr">
-        <is>
-          <t>康复治疗学</t>
-        </is>
-      </c>
-      <c r="F2129" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2130">
-      <c r="A2130" t="n">
-        <v>15860</v>
-      </c>
-      <c r="B2130" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2130" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2130" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2130" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="F2130" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2131">
-      <c r="A2131" t="n">
-        <v>15863</v>
-      </c>
-      <c r="B2131" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2131" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2131" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2131" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2131" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2132">
-      <c r="A2132" t="n">
-        <v>15873</v>
-      </c>
-      <c r="B2132" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2132" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2132" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2132" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2132" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2133">
-      <c r="A2133" t="n">
-        <v>15874</v>
-      </c>
-      <c r="B2133" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2133" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2133" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2133" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2133" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2134">
-      <c r="A2134" t="n">
-        <v>15875</v>
-      </c>
-      <c r="B2134" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2134" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2134" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2134" t="inlineStr">
-        <is>
-          <t>会计学</t>
-        </is>
-      </c>
-      <c r="F2134" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2135">
-      <c r="A2135" t="n">
-        <v>15879</v>
-      </c>
-      <c r="B2135" t="inlineStr">
-        <is>
-          <t>上海财经大学</t>
-        </is>
-      </c>
-      <c r="C2135" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2135" t="inlineStr">
-        <is>
-          <t>上海财经大学浙江学院</t>
-        </is>
-      </c>
-      <c r="E2135" t="inlineStr">
-        <is>
-          <t>数据科学与大数据技术</t>
-        </is>
-      </c>
-      <c r="F2135" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2136">
-      <c r="A2136" t="n">
-        <v>15979</v>
-      </c>
-      <c r="B2136" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2136" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2136" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2136" t="inlineStr">
-        <is>
-          <t>金融工程</t>
-        </is>
-      </c>
-      <c r="F2136" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2137">
-      <c r="A2137" t="n">
-        <v>15994</v>
-      </c>
-      <c r="B2137" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2137" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2137" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2137" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2137" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2138">
-      <c r="A2138" t="n">
-        <v>15996</v>
-      </c>
-      <c r="B2138" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2138" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2138" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2138" t="inlineStr">
-        <is>
-          <t>软件工程</t>
-        </is>
-      </c>
-      <c r="F2138" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2139">
-      <c r="A2139" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B2139" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2139" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2139" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2139" t="inlineStr">
-        <is>
-          <t>机械工程</t>
-        </is>
-      </c>
-      <c r="F2139" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2140">
-      <c r="A2140" t="n">
-        <v>16001</v>
-      </c>
-      <c r="B2140" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2140" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>电子科学与技术</t>
-        </is>
-      </c>
-      <c r="F2140" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2141">
-      <c r="A2141" t="n">
-        <v>16002</v>
-      </c>
-      <c r="B2141" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2141" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2141" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="F2141" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2142">
-      <c r="A2142" t="n">
-        <v>16096</v>
-      </c>
-      <c r="B2142" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2142" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2142" t="inlineStr">
-        <is>
-          <t>数字经济</t>
-        </is>
-      </c>
-      <c r="F2142" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2143">
-      <c r="A2143" t="n">
-        <v>16097</v>
-      </c>
-      <c r="B2143" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2143" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2143" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2143" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2143" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2144">
-      <c r="A2144" t="n">
-        <v>16111</v>
-      </c>
-      <c r="B2144" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2144" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2144" t="inlineStr">
-        <is>
-          <t>智能制造工程</t>
-        </is>
-      </c>
-      <c r="F2144" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2145">
-      <c r="A2145" t="n">
-        <v>16118</v>
-      </c>
-      <c r="B2145" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2145" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2145" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="F2145" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2146">
-      <c r="A2146" t="n">
-        <v>16127</v>
-      </c>
-      <c r="B2146" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2146" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2146" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2146" t="inlineStr">
-        <is>
-          <t>智能制造工程</t>
-        </is>
-      </c>
-      <c r="F2146" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2147">
-      <c r="A2147" t="n">
-        <v>16222</v>
-      </c>
-      <c r="B2147" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2147" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2147" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2147" t="inlineStr">
-        <is>
-          <t>机械电子工程</t>
-        </is>
-      </c>
-      <c r="F2147" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2148">
-      <c r="A2148" t="n">
-        <v>16227</v>
-      </c>
-      <c r="B2148" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2148" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2148" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2148" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2148" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2149">
-      <c r="A2149" t="n">
-        <v>16331</v>
-      </c>
-      <c r="B2149" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2149" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2149" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2149" t="inlineStr">
-        <is>
-          <t>物流工程</t>
-        </is>
-      </c>
-      <c r="F2149" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2150">
-      <c r="A2150" t="n">
-        <v>16341</v>
-      </c>
-      <c r="B2150" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2150" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2150" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2150" t="inlineStr">
-        <is>
-          <t>电子信息科学与技术</t>
-        </is>
-      </c>
-      <c r="F2150" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2151">
-      <c r="A2151" t="n">
-        <v>16342</v>
-      </c>
-      <c r="B2151" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2151" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2151" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2151" t="inlineStr">
-        <is>
-          <t>物联网工程</t>
-        </is>
-      </c>
-      <c r="F2151" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2152">
-      <c r="A2152" t="n">
-        <v>16350</v>
-      </c>
-      <c r="B2152" t="inlineStr">
-        <is>
-          <t>西北大学</t>
-        </is>
-      </c>
-      <c r="C2152" t="inlineStr">
-        <is>
-          <t>西北大学现代学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2152" t="inlineStr">
-        <is>
-          <t>西北大学现代学院</t>
-        </is>
-      </c>
-      <c r="E2152" t="inlineStr">
-        <is>
-          <t>金融工程</t>
-        </is>
-      </c>
-      <c r="F2152" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2153">
-      <c r="A2153" t="n">
-        <v>16475</v>
-      </c>
-      <c r="B2153" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2153" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2153" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2153" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="F2153" t="n">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2154">
-      <c r="A2154" t="n">
-        <v>16580</v>
-      </c>
-      <c r="B2154" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2154" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2154" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2154" t="inlineStr">
-        <is>
-          <t>材料科学与工程</t>
-        </is>
-      </c>
-      <c r="F2154" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2155">
-      <c r="A2155" t="n">
-        <v>16581</v>
-      </c>
-      <c r="B2155" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2155" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2155" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2155" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2156">
-      <c r="A2156" t="n">
-        <v>16582</v>
-      </c>
-      <c r="B2156" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2156" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2156" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2156" t="inlineStr">
-        <is>
-          <t>数据科学与大数据技术</t>
-        </is>
-      </c>
-      <c r="F2156" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="n">
-        <v>16598</v>
-      </c>
-      <c r="B2157" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2157" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2157" t="inlineStr">
-        <is>
-          <t>金融工程</t>
-        </is>
-      </c>
-      <c r="F2157" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="n">
-        <v>16603</v>
-      </c>
-      <c r="B2158" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2158" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2158" t="inlineStr">
-        <is>
-          <t>通信工程</t>
-        </is>
-      </c>
-      <c r="F2158" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="n">
-        <v>16604</v>
-      </c>
-      <c r="B2159" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2159" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2159" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="n">
-        <v>16715</v>
-      </c>
-      <c r="B2160" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2160" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2160" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr">
-        <is>
-          <t>工程造价</t>
-        </is>
-      </c>
-      <c r="F2160" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="n">
-        <v>16721</v>
-      </c>
-      <c r="B2161" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2161" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2161" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2161" t="inlineStr">
-        <is>
-          <t>网络与新媒体</t>
-        </is>
-      </c>
-      <c r="F2161" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="n">
-        <v>16722</v>
-      </c>
-      <c r="B2162" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2162" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2162" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化</t>
-        </is>
-      </c>
-      <c r="F2162" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="n">
-        <v>16723</v>
-      </c>
-      <c r="B2163" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2163" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2163" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2163" t="inlineStr">
-        <is>
-          <t>电子信息工程</t>
-        </is>
-      </c>
-      <c r="F2163" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="n">
-        <v>16724</v>
-      </c>
-      <c r="B2164" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2164" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2164" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2164" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="F2164" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="n">
-        <v>16725</v>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2165" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr">
-        <is>
-          <t>软件工程</t>
-        </is>
-      </c>
-      <c r="F2165" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="n">
-        <v>16735</v>
-      </c>
-      <c r="B2166" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2166" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2166" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2166" t="inlineStr">
-        <is>
-          <t>材料成型及控制工程</t>
-        </is>
-      </c>
-      <c r="F2166" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="n">
-        <v>16736</v>
-      </c>
-      <c r="B2167" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2167" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2167" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr">
-        <is>
-          <t>生物工程</t>
-        </is>
-      </c>
-      <c r="F2167" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="n">
-        <v>16739</v>
-      </c>
-      <c r="B2168" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2168" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2168" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2168" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="F2168" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="n">
-        <v>16741</v>
-      </c>
-      <c r="B2169" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2169" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2169" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2169" t="inlineStr">
-        <is>
-          <t>学前教育</t>
-        </is>
-      </c>
-      <c r="F2169" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="n">
-        <v>16742</v>
-      </c>
-      <c r="B2170" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2170" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2170" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2170" t="inlineStr">
-        <is>
-          <t>电气工程及其自动化</t>
-        </is>
-      </c>
-      <c r="F2170" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="n">
-        <v>16743</v>
-      </c>
-      <c r="B2171" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2171" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2171" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2171" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2171" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="n">
-        <v>16748</v>
-      </c>
-      <c r="B2172" t="inlineStr">
-        <is>
-          <t>天津医科大学</t>
-        </is>
-      </c>
-      <c r="C2172" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2172" t="inlineStr">
-        <is>
-          <t>天津医科大学临床医学院</t>
-        </is>
-      </c>
-      <c r="E2172" t="inlineStr">
-        <is>
-          <t>市场营销</t>
-        </is>
-      </c>
-      <c r="F2172" t="n">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="n">
-        <v>16839</v>
-      </c>
-      <c r="B2173" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2173" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2173" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2173" t="inlineStr">
-        <is>
-          <t>环境工程</t>
-        </is>
-      </c>
-      <c r="F2173" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="n">
-        <v>16840</v>
-      </c>
-      <c r="B2174" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2174" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2174" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2174" t="inlineStr">
-        <is>
-          <t>物联网工程</t>
-        </is>
-      </c>
-      <c r="F2174" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="n">
-        <v>16841</v>
-      </c>
-      <c r="B2175" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2175" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2175" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="F2175" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="n">
-        <v>16859</v>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2176" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2176" t="inlineStr">
-        <is>
-          <t>国际经济与贸易</t>
-        </is>
-      </c>
-      <c r="F2176" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="n">
-        <v>16860</v>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2177" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2177" t="inlineStr">
-        <is>
-          <t>市场营销</t>
-        </is>
-      </c>
-      <c r="F2177" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="n">
-        <v>16861</v>
-      </c>
-      <c r="B2178" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2178" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2178" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2178" t="inlineStr">
-        <is>
-          <t>旅游管理</t>
-        </is>
-      </c>
-      <c r="F2178" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="n">
-        <v>16862</v>
-      </c>
-      <c r="B2179" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2179" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2179" t="inlineStr">
-        <is>
-          <t>金融学</t>
-        </is>
-      </c>
-      <c r="F2179" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="n">
-        <v>16863</v>
-      </c>
-      <c r="B2180" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2180" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2180" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr">
-        <is>
-          <t>信息与计算科学</t>
-        </is>
-      </c>
-      <c r="F2180" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="n">
-        <v>16949</v>
-      </c>
-      <c r="B2181" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2181" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2181" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2181" t="inlineStr">
-        <is>
-          <t>日语</t>
-        </is>
-      </c>
-      <c r="F2181" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="n">
-        <v>16950</v>
-      </c>
-      <c r="B2182" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2182" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2182" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2182" t="inlineStr">
-        <is>
-          <t>功能材料</t>
-        </is>
-      </c>
-      <c r="F2182" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="n">
-        <v>16954</v>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2183" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr">
-        <is>
-          <t>金融科技</t>
-        </is>
-      </c>
-      <c r="F2183" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="n">
-        <v>16955</v>
-      </c>
-      <c r="B2184" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2184" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2184" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2184" t="inlineStr">
-        <is>
-          <t>通信工程</t>
-        </is>
-      </c>
-      <c r="F2184" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="n">
-        <v>16964</v>
-      </c>
-      <c r="B2185" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2185" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2185" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2185" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="F2185" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="n">
-        <v>16965</v>
-      </c>
-      <c r="B2186" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2186" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2186" t="inlineStr">
-        <is>
-          <t>南昌大学科学技术学院</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr">
-        <is>
-          <t>给排水科学与工程</t>
-        </is>
-      </c>
-      <c r="F2186" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="n">
-        <v>16966</v>
-      </c>
-      <c r="B2187" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2187" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2187" t="inlineStr">
-        <is>
-          <t>人力资源管理</t>
-        </is>
-      </c>
-      <c r="F2187" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="n">
-        <v>16967</v>
-      </c>
-      <c r="B2188" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2188" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2188" t="inlineStr">
-        <is>
-          <t>机械工程</t>
-        </is>
-      </c>
-      <c r="F2188" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="n">
-        <v>17047</v>
-      </c>
-      <c r="B2189" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2189" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2189" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2189" t="inlineStr">
-        <is>
-          <t>物流工程</t>
-        </is>
-      </c>
-      <c r="F2189" t="n">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="n">
-        <v>17067</v>
-      </c>
-      <c r="B2190" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2190" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2190" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2190" t="inlineStr">
-        <is>
-          <t>信息安全</t>
-        </is>
-      </c>
-      <c r="F2190" t="n">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="n">
-        <v>17068</v>
-      </c>
-      <c r="B2191" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2191" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2191" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2191" t="inlineStr">
-        <is>
-          <t>化学工程与工艺</t>
-        </is>
-      </c>
-      <c r="F2191" t="n">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="n">
-        <v>17153</v>
-      </c>
-      <c r="B2192" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2192" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2192" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2192" t="inlineStr">
-        <is>
-          <t>财务管理</t>
-        </is>
-      </c>
-      <c r="F2192" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="n">
-        <v>17154</v>
-      </c>
-      <c r="B2193" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2193" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2193" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2193" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2193" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="n">
-        <v>17155</v>
-      </c>
-      <c r="B2194" t="inlineStr">
-        <is>
-          <t>北京邮电大学</t>
-        </is>
-      </c>
-      <c r="C2194" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2194" t="inlineStr">
-        <is>
-          <t>北京邮电大学世纪学院</t>
-        </is>
-      </c>
-      <c r="E2194" t="inlineStr">
-        <is>
-          <t>通信工程</t>
-        </is>
-      </c>
-      <c r="F2194" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="n">
-        <v>17170</v>
-      </c>
-      <c r="B2195" t="inlineStr">
-        <is>
-          <t>南昌大学</t>
-        </is>
-      </c>
-      <c r="C2195" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院(九江市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2195" t="inlineStr">
-        <is>
-          <t>南昌大学共青学院</t>
-        </is>
-      </c>
-      <c r="E2195" t="inlineStr">
-        <is>
-          <t>服装设计与工程</t>
-        </is>
-      </c>
-      <c r="F2195" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="n">
-        <v>17173</v>
-      </c>
-      <c r="B2196" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2196" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2196" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2196" t="inlineStr">
-        <is>
-          <t>电子信息工程</t>
-        </is>
-      </c>
-      <c r="F2196" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="n">
-        <v>17255</v>
-      </c>
-      <c r="B2197" t="inlineStr">
-        <is>
-          <t>南京理工大学</t>
-        </is>
-      </c>
-      <c r="C2197" t="inlineStr">
-        <is>
-          <t>南京理工大学泰州科技学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2197" t="inlineStr">
-        <is>
-          <t>南京理工大学泰州科技学院</t>
-        </is>
-      </c>
-      <c r="E2197" t="inlineStr">
-        <is>
-          <t>环境工程</t>
-        </is>
-      </c>
-      <c r="F2197" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="n">
-        <v>17256</v>
-      </c>
-      <c r="B2198" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2198" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2198" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2198" t="inlineStr">
-        <is>
-          <t>环境科学</t>
-        </is>
-      </c>
-      <c r="F2198" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="n">
-        <v>17257</v>
-      </c>
-      <c r="B2199" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2199" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2199" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2199" t="inlineStr">
-        <is>
-          <t>工程管理</t>
-        </is>
-      </c>
-      <c r="F2199" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="n">
-        <v>17262</v>
-      </c>
-      <c r="B2200" t="inlineStr">
-        <is>
-          <t>西南交通大学</t>
-        </is>
-      </c>
-      <c r="C2200" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院(成都市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2200" t="inlineStr">
-        <is>
-          <t>西南交通大学希望学院</t>
-        </is>
-      </c>
-      <c r="E2200" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2200" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="n">
-        <v>17266</v>
-      </c>
-      <c r="B2201" t="inlineStr">
-        <is>
-          <t>中国矿业大学</t>
-        </is>
-      </c>
-      <c r="C2201" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2201" t="inlineStr">
-        <is>
-          <t>中国矿业大学徐海学院</t>
-        </is>
-      </c>
-      <c r="E2201" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2201" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="n">
-        <v>17338</v>
-      </c>
-      <c r="B2202" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2202" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2202" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2202" t="inlineStr">
-        <is>
-          <t>信息与计算科学</t>
-        </is>
-      </c>
-      <c r="F2202" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="n">
-        <v>17342</v>
-      </c>
-      <c r="B2203" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2203" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2203" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2203" t="inlineStr">
-        <is>
-          <t>环境工程</t>
-        </is>
-      </c>
-      <c r="F2203" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="n">
-        <v>17344</v>
-      </c>
-      <c r="B2204" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2204" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2204" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2204" t="inlineStr">
-        <is>
-          <t>金融学(全英语教学班)</t>
-        </is>
-      </c>
-      <c r="F2204" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="n">
-        <v>17398</v>
-      </c>
-      <c r="B2205" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2205" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2205" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2205" t="inlineStr">
-        <is>
-          <t>食品科学与工程</t>
-        </is>
-      </c>
-      <c r="F2205" t="n">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="n">
-        <v>17470</v>
-      </c>
-      <c r="B2206" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2206" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2206" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2206" t="inlineStr">
-        <is>
-          <t>数学与应用数学(教育方向)</t>
-        </is>
-      </c>
-      <c r="F2206" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="n">
-        <v>17471</v>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2207" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2207" t="inlineStr">
-        <is>
-          <t>生物技术</t>
-        </is>
-      </c>
-      <c r="F2207" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="n">
-        <v>17527</v>
-      </c>
-      <c r="B2208" t="inlineStr">
-        <is>
-          <t>北京科技大学</t>
-        </is>
-      </c>
-      <c r="C2208" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2208" t="inlineStr">
-        <is>
-          <t>北京科技大学天津学院</t>
-        </is>
-      </c>
-      <c r="E2208" t="inlineStr">
-        <is>
-          <t>朝鲜语</t>
-        </is>
-      </c>
-      <c r="F2208" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="n">
-        <v>17528</v>
-      </c>
-      <c r="B2209" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2209" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2209" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr">
-        <is>
-          <t>口腔医学技术</t>
-        </is>
-      </c>
-      <c r="F2209" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="n">
-        <v>17533</v>
-      </c>
-      <c r="B2210" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2210" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2210" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2210" t="inlineStr">
-        <is>
-          <t>材料成型及控制工程</t>
-        </is>
-      </c>
-      <c r="F2210" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="n">
-        <v>17534</v>
-      </c>
-      <c r="B2211" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2211" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2211" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2211" t="inlineStr">
-        <is>
-          <t>化学工程与工艺</t>
-        </is>
-      </c>
-      <c r="F2211" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="n">
-        <v>17541</v>
-      </c>
-      <c r="B2212" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2212" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2212" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2212" t="inlineStr">
-        <is>
-          <t>工商管理(人力资源方向)</t>
-        </is>
-      </c>
-      <c r="F2212" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="n">
-        <v>17597</v>
-      </c>
-      <c r="B2213" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2213" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2213" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2213" t="inlineStr">
-        <is>
-          <t>工商管理</t>
-        </is>
-      </c>
-      <c r="F2213" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="n">
-        <v>17607</v>
-      </c>
-      <c r="B2214" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2214" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2214" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2214" t="inlineStr">
-        <is>
-          <t>金融科技</t>
-        </is>
-      </c>
-      <c r="F2214" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="n">
-        <v>17609</v>
-      </c>
-      <c r="B2215" t="inlineStr">
-        <is>
-          <t>西北大学</t>
-        </is>
-      </c>
-      <c r="C2215" t="inlineStr">
-        <is>
-          <t>西北大学现代学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2215" t="inlineStr">
-        <is>
-          <t>西北大学现代学院</t>
-        </is>
-      </c>
-      <c r="E2215" t="inlineStr">
-        <is>
-          <t>数字经济</t>
-        </is>
-      </c>
-      <c r="F2215" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="n">
-        <v>17649</v>
-      </c>
-      <c r="B2216" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2216" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2216" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2216" t="inlineStr">
-        <is>
-          <t>药学</t>
-        </is>
-      </c>
-      <c r="F2216" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="n">
-        <v>17655</v>
-      </c>
-      <c r="B2217" t="inlineStr">
-        <is>
-          <t>内蒙古大学</t>
-        </is>
-      </c>
-      <c r="C2217" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2217" t="inlineStr">
-        <is>
-          <t>内蒙古大学创业学院</t>
-        </is>
-      </c>
-      <c r="E2217" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2217" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2218">
-      <c r="A2218" t="n">
-        <v>17656</v>
-      </c>
-      <c r="B2218" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2218" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2218" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2218" t="inlineStr">
-        <is>
-          <t>信息管理与信息系统</t>
-        </is>
-      </c>
-      <c r="F2218" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2219">
-      <c r="A2219" t="n">
-        <v>17657</v>
-      </c>
-      <c r="B2219" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2219" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2219" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2219" t="inlineStr">
-        <is>
-          <t>电子商务</t>
-        </is>
-      </c>
-      <c r="F2219" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2220">
-      <c r="A2220" t="n">
-        <v>17660</v>
-      </c>
-      <c r="B2220" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2220" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2220" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2220" t="inlineStr">
-        <is>
-          <t>阿拉伯语</t>
-        </is>
-      </c>
-      <c r="F2220" t="n">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="n">
-        <v>17706</v>
-      </c>
-      <c r="B2221" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2221" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2221" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2221" t="inlineStr">
-        <is>
-          <t>应用化学</t>
-        </is>
-      </c>
-      <c r="F2221" t="n">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="n">
-        <v>17711</v>
-      </c>
-      <c r="B2222" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2222" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2222" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2222" t="inlineStr">
-        <is>
-          <t>物流管理</t>
-        </is>
-      </c>
-      <c r="F2222" t="n">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2223">
-      <c r="A2223" t="n">
-        <v>17765</v>
-      </c>
-      <c r="B2223" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2223" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2223" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2223" t="inlineStr">
-        <is>
-          <t>眼视光学</t>
-        </is>
-      </c>
-      <c r="F2223" t="n">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2224">
-      <c r="A2224" t="n">
-        <v>17766</v>
-      </c>
-      <c r="B2224" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2224" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2224" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2224" t="inlineStr">
-        <is>
-          <t>材料科学与工程</t>
-        </is>
-      </c>
-      <c r="F2224" t="n">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2225">
-      <c r="A2225" t="n">
-        <v>17767</v>
-      </c>
-      <c r="B2225" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2225" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2225" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2225" t="inlineStr">
-        <is>
-          <t>会计学(双语班)</t>
-        </is>
-      </c>
-      <c r="F2225" t="n">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2226">
-      <c r="A2226" t="n">
-        <v>17816</v>
-      </c>
-      <c r="B2226" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2226" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2226" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2226" t="inlineStr">
-        <is>
-          <t>国际经济与贸易</t>
-        </is>
-      </c>
-      <c r="F2226" t="n">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2227">
-      <c r="A2227" t="n">
-        <v>17859</v>
-      </c>
-      <c r="B2227" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2227" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2227" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2227" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化(机器人方向)</t>
-        </is>
-      </c>
-      <c r="F2227" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2228">
-      <c r="A2228" t="n">
-        <v>17860</v>
-      </c>
-      <c r="B2228" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2228" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2228" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2228" t="inlineStr">
-        <is>
-          <t>中医学</t>
-        </is>
-      </c>
-      <c r="F2228" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2229">
-      <c r="A2229" t="n">
-        <v>17864</v>
-      </c>
-      <c r="B2229" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2229" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2229" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2229" t="inlineStr">
-        <is>
-          <t>环境工程</t>
-        </is>
-      </c>
-      <c r="F2229" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2230">
-      <c r="A2230" t="n">
-        <v>17872</v>
-      </c>
-      <c r="B2230" t="inlineStr">
-        <is>
-          <t>西北大学</t>
-        </is>
-      </c>
-      <c r="C2230" t="inlineStr">
-        <is>
-          <t>西北大学现代学院(按高考文化课成绩录取的艺术类专业)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2230" t="inlineStr">
-        <is>
-          <t>西北大学现代学院</t>
-        </is>
-      </c>
-      <c r="E2230" t="inlineStr">
-        <is>
-          <t>广播电视编导</t>
-        </is>
-      </c>
-      <c r="F2230" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2231">
-      <c r="A2231" t="n">
-        <v>17916</v>
-      </c>
-      <c r="B2231" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2231" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2231" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2231" t="inlineStr">
-        <is>
-          <t>医学影像技术</t>
-        </is>
-      </c>
-      <c r="F2231" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2232">
-      <c r="A2232" t="n">
-        <v>17972</v>
-      </c>
-      <c r="B2232" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2232" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2232" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2232" t="inlineStr">
-        <is>
-          <t>翻译</t>
-        </is>
-      </c>
-      <c r="F2232" t="n">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2233">
-      <c r="A2233" t="n">
-        <v>18014</v>
-      </c>
-      <c r="B2233" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2233" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2233" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2233" t="inlineStr">
-        <is>
-          <t>计算机科学与技术</t>
-        </is>
-      </c>
-      <c r="F2233" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2234">
-      <c r="A2234" t="n">
-        <v>18015</v>
-      </c>
-      <c r="B2234" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2234" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2234" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2234" t="inlineStr">
-        <is>
-          <t>护理学</t>
-        </is>
-      </c>
-      <c r="F2234" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2235">
-      <c r="A2235" t="n">
-        <v>18016</v>
-      </c>
-      <c r="B2235" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2235" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2235" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2235" t="inlineStr">
-        <is>
-          <t>健康服务与管理</t>
-        </is>
-      </c>
-      <c r="F2235" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2236">
-      <c r="A2236" t="n">
-        <v>18021</v>
-      </c>
-      <c r="B2236" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2236" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2236" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2236" t="inlineStr">
-        <is>
-          <t>工程管理</t>
-        </is>
-      </c>
-      <c r="F2236" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2237">
-      <c r="A2237" t="n">
-        <v>18023</v>
-      </c>
-      <c r="B2237" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2237" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2237" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2237" t="inlineStr">
-        <is>
-          <t>广告学</t>
-        </is>
-      </c>
-      <c r="F2237" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2238">
-      <c r="A2238" t="n">
-        <v>18060</v>
-      </c>
-      <c r="B2238" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2238" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2238" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2238" t="inlineStr">
-        <is>
-          <t>市场营销</t>
-        </is>
-      </c>
-      <c r="F2238" t="n">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2239">
-      <c r="A2239" t="n">
-        <v>18107</v>
-      </c>
-      <c r="B2239" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2239" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2239" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2239" t="inlineStr">
-        <is>
-          <t>针灸推拿学</t>
-        </is>
-      </c>
-      <c r="F2239" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2240">
-      <c r="A2240" t="n">
-        <v>18108</v>
-      </c>
-      <c r="B2240" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2240" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2240" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2240" t="inlineStr">
-        <is>
-          <t>公共事业管理</t>
-        </is>
-      </c>
-      <c r="F2240" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2241">
-      <c r="A2241" t="n">
-        <v>18112</v>
-      </c>
-      <c r="B2241" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2241" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2241" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2241" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2241" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2242">
-      <c r="A2242" t="n">
-        <v>18113</v>
-      </c>
-      <c r="B2242" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2242" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2242" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2242" t="inlineStr">
-        <is>
-          <t>安全工程</t>
-        </is>
-      </c>
-      <c r="F2242" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2243">
-      <c r="A2243" t="n">
-        <v>18117</v>
-      </c>
-      <c r="B2243" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2243" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2243" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2243" t="inlineStr">
-        <is>
-          <t>旅游管理</t>
-        </is>
-      </c>
-      <c r="F2243" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2244">
-      <c r="A2244" t="n">
-        <v>18120</v>
-      </c>
-      <c r="B2244" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2244" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2244" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2244" t="inlineStr">
-        <is>
-          <t>商务英语</t>
-        </is>
-      </c>
-      <c r="F2244" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2245">
-      <c r="A2245" t="n">
-        <v>18156</v>
-      </c>
-      <c r="B2245" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2245" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2245" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2245" t="inlineStr">
-        <is>
-          <t>城乡规划</t>
-        </is>
-      </c>
-      <c r="F2245" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2246">
-      <c r="A2246" t="n">
-        <v>18157</v>
-      </c>
-      <c r="B2246" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2246" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2246" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2246" t="inlineStr">
-        <is>
-          <t>市场营销(品牌管理与策划)</t>
-        </is>
-      </c>
-      <c r="F2246" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2247">
-      <c r="A2247" t="n">
-        <v>18165</v>
-      </c>
-      <c r="B2247" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2247" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2247" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2247" t="inlineStr">
-        <is>
-          <t>法语(双语班)</t>
-        </is>
-      </c>
-      <c r="F2247" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2248">
-      <c r="A2248" t="n">
-        <v>18207</v>
-      </c>
-      <c r="B2248" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2248" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2248" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2248" t="inlineStr">
-        <is>
-          <t>金融工程</t>
-        </is>
-      </c>
-      <c r="F2248" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2249">
-      <c r="A2249" t="n">
-        <v>18208</v>
-      </c>
-      <c r="B2249" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2249" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2249" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2249" t="inlineStr">
-        <is>
-          <t>医学检验技术</t>
-        </is>
-      </c>
-      <c r="F2249" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2250">
-      <c r="A2250" t="n">
-        <v>18209</v>
-      </c>
-      <c r="B2250" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2250" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2250" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2250" t="inlineStr">
-        <is>
-          <t>康复治疗学</t>
-        </is>
-      </c>
-      <c r="F2250" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2251">
-      <c r="A2251" t="n">
-        <v>18215</v>
-      </c>
-      <c r="B2251" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2251" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2251" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2251" t="inlineStr">
-        <is>
-          <t>工商管理(全英语教学班)</t>
-        </is>
-      </c>
-      <c r="F2251" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2252">
-      <c r="A2252" t="n">
-        <v>18248</v>
-      </c>
-      <c r="B2252" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2252" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2252" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2252" t="inlineStr">
-        <is>
-          <t>数字媒体技术</t>
-        </is>
-      </c>
-      <c r="F2252" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2253">
-      <c r="A2253" t="n">
-        <v>18254</v>
-      </c>
-      <c r="B2253" t="inlineStr">
-        <is>
-          <t>福州大学</t>
-        </is>
-      </c>
-      <c r="C2253" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2253" t="inlineStr">
-        <is>
-          <t>福州大学至诚学院</t>
-        </is>
-      </c>
-      <c r="E2253" t="inlineStr">
-        <is>
-          <t>建筑学</t>
-        </is>
-      </c>
-      <c r="F2253" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2254">
-      <c r="A2254" t="n">
-        <v>18308</v>
-      </c>
-      <c r="B2254" t="inlineStr">
-        <is>
-          <t>宁夏大学</t>
-        </is>
-      </c>
-      <c r="C2254" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院(银川市)[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2254" t="inlineStr">
-        <is>
-          <t>宁夏大学新华学院</t>
-        </is>
-      </c>
-      <c r="E2254" t="inlineStr">
-        <is>
-          <t>土木工程</t>
-        </is>
-      </c>
-      <c r="F2254" t="n">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2255">
-      <c r="A2255" t="n">
-        <v>18340</v>
-      </c>
-      <c r="B2255" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2255" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2255" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2255" t="inlineStr">
-        <is>
-          <t>汉语国际教育</t>
-        </is>
-      </c>
-      <c r="F2255" t="n">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2256">
-      <c r="A2256" t="n">
-        <v>18341</v>
-      </c>
-      <c r="B2256" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2256" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2256" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2256" t="inlineStr">
-        <is>
-          <t>电子信息类</t>
-        </is>
-      </c>
-      <c r="F2256" t="n">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2257">
-      <c r="A2257" t="n">
-        <v>18430</v>
-      </c>
-      <c r="B2257" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2257" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2257" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2257" t="inlineStr">
-        <is>
-          <t>药事管理</t>
-        </is>
-      </c>
-      <c r="F2257" t="n">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2258">
-      <c r="A2258" t="n">
-        <v>18431</v>
-      </c>
-      <c r="B2258" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2258" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2258" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2258" t="inlineStr">
-        <is>
-          <t>中药学</t>
-        </is>
-      </c>
-      <c r="F2258" t="n">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2259">
-      <c r="A2259" t="n">
-        <v>18538</v>
-      </c>
-      <c r="B2259" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2259" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2259" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2259" t="inlineStr">
-        <is>
-          <t>遥感科学与技术</t>
-        </is>
-      </c>
-      <c r="F2259" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2260">
-      <c r="A2260" t="n">
-        <v>18587</v>
-      </c>
-      <c r="B2260" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2260" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2260" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2260" t="inlineStr">
-        <is>
-          <t>气象技术与工程</t>
-        </is>
-      </c>
-      <c r="F2260" t="n">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2261">
-      <c r="A2261" t="n">
-        <v>18588</v>
-      </c>
-      <c r="B2261" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2261" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2261" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2261" t="inlineStr">
-        <is>
-          <t>中西医临床医学</t>
-        </is>
-      </c>
-      <c r="F2261" t="n">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2262">
-      <c r="A2262" t="n">
-        <v>18636</v>
-      </c>
-      <c r="B2262" t="inlineStr">
-        <is>
-          <t>北京中医药大学</t>
-        </is>
-      </c>
-      <c r="C2262" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2262" t="inlineStr">
-        <is>
-          <t>北京中医药大学东方学院</t>
-        </is>
-      </c>
-      <c r="E2262" t="inlineStr">
-        <is>
-          <t>中药制药</t>
-        </is>
-      </c>
-      <c r="F2262" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" t="n">
-        <v>18735</v>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2263" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2263" t="inlineStr">
-        <is>
-          <t>社会工作</t>
-        </is>
-      </c>
-      <c r="F2263" t="n">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2264">
-      <c r="A2264" t="n">
-        <v>18786</v>
-      </c>
-      <c r="B2264" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2264" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2264" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2264" t="inlineStr">
-        <is>
-          <t>建筑学</t>
-        </is>
-      </c>
-      <c r="F2264" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2265">
-      <c r="A2265" t="n">
-        <v>18872</v>
-      </c>
-      <c r="B2265" t="inlineStr">
-        <is>
-          <t>上海外国语大学</t>
-        </is>
-      </c>
-      <c r="C2265" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2265" t="inlineStr">
-        <is>
-          <t>上海外国语大学贤达经济人文学院</t>
-        </is>
-      </c>
-      <c r="E2265" t="inlineStr">
-        <is>
-          <t>大数据管理与应用</t>
-        </is>
-      </c>
-      <c r="F2265" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2266">
-      <c r="A2266" t="n">
-        <v>18950</v>
-      </c>
-      <c r="B2266" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2266" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2266" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2266" t="inlineStr">
-        <is>
-          <t>工业设计</t>
-        </is>
-      </c>
-      <c r="F2266" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2267">
-      <c r="A2267" t="n">
-        <v>18951</v>
-      </c>
-      <c r="B2267" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2267" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2267" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2267" t="inlineStr">
-        <is>
-          <t>工程管理</t>
-        </is>
-      </c>
-      <c r="F2267" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2268">
-      <c r="A2268" t="n">
-        <v>19065</v>
-      </c>
-      <c r="B2268" t="inlineStr">
-        <is>
-          <t>北京工业大学</t>
-        </is>
-      </c>
-      <c r="C2268" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院[独立学院]</t>
-        </is>
-      </c>
-      <c r="D2268" t="inlineStr">
-        <is>
-          <t>北京工业大学耿丹学院</t>
-        </is>
-      </c>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>测控技术与仪器</t>
-        </is>
-      </c>
-      <c r="F2268" t="n">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
